--- a/Program/Other/Sharepoint上傳用/測試FT/L7/L7901/FT_L7901.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L7/L7901/FT_L7901.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L7\L7901\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EA243D-2E54-4B25-8FD7-AE75E29AD43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC55A5-DAE9-48A1-A034-254AD6A09F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" FT_L8401" sheetId="1" r:id="rId1"/>
+    <sheet name=" FT_L7901" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -646,7 +646,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
